--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.9774308669207</v>
+        <v>203.4255611942826</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.2023756701356</v>
+        <v>278.3358273282603</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.1367454308168</v>
+        <v>251.77184661492</v>
       </c>
       <c r="AD2" t="n">
-        <v>168977.4308669207</v>
+        <v>203425.5611942826</v>
       </c>
       <c r="AE2" t="n">
-        <v>231202.3756701355</v>
+        <v>278335.8273282603</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.558888359543555e-06</v>
+        <v>6.572387116349856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>209136.7454308168</v>
+        <v>251771.84661492</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.80466363823102</v>
+        <v>124.6194261701095</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1888997438912</v>
+        <v>170.5097967069354</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2866608911829</v>
+        <v>154.2365810212756</v>
       </c>
       <c r="AD3" t="n">
-        <v>98804.66363823102</v>
+        <v>124619.4261701095</v>
       </c>
       <c r="AE3" t="n">
-        <v>135188.8997438912</v>
+        <v>170509.7967069354</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.266903236776704e-06</v>
+        <v>9.034771383813028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>122286.6608911829</v>
+        <v>154236.5810212756</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.3660553397446</v>
+        <v>136.4477338041612</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.3759500393841</v>
+        <v>186.6938090399408</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.833403228656</v>
+        <v>168.8760139316281</v>
       </c>
       <c r="AD2" t="n">
-        <v>111366.0553397446</v>
+        <v>136447.7338041612</v>
       </c>
       <c r="AE2" t="n">
-        <v>152375.9500393841</v>
+        <v>186693.8090399408</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.948632290691592e-06</v>
+        <v>8.708573892254743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.285416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137833.403228656</v>
+        <v>168876.0139316281</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.6994790579061</v>
+        <v>123.5344156764629</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.9909344957601</v>
+        <v>169.0252374822443</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.0577646070878</v>
+        <v>152.8937060453965</v>
       </c>
       <c r="AD3" t="n">
-        <v>106699.4790579061</v>
+        <v>123534.4156764629</v>
       </c>
       <c r="AE3" t="n">
-        <v>145990.9344957602</v>
+        <v>169025.2374822443</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.180891090076994e-06</v>
+        <v>9.048592037222144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>132057.7646070878</v>
+        <v>152893.7060453965</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.2382884956236</v>
+        <v>157.2221025780109</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.7247955598679</v>
+        <v>215.1182168967747</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.2401834924553</v>
+        <v>194.5876361965218</v>
       </c>
       <c r="AD2" t="n">
-        <v>126238.2884956236</v>
+        <v>157222.1025780109</v>
       </c>
       <c r="AE2" t="n">
-        <v>172724.7955598679</v>
+        <v>215118.2168967747</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216514425243333e-06</v>
+        <v>8.070591705433479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.725000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>156240.1834924553</v>
+        <v>194587.6361965218</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.7769996931643</v>
+        <v>133.8413962283977</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.2017339995466</v>
+        <v>183.1277029852843</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.8666913161285</v>
+        <v>165.6502520337656</v>
       </c>
       <c r="AD2" t="n">
-        <v>109776.9996931643</v>
+        <v>133841.3962283977</v>
       </c>
       <c r="AE2" t="n">
-        <v>150201.7339995466</v>
+        <v>183127.7029852844</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.757160873151446e-06</v>
+        <v>8.700762502929257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.829166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135866.6913161285</v>
+        <v>165650.2520337656</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.238621266666</v>
+        <v>185.861997743228</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.8266214433744</v>
+        <v>254.3045849648063</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.4691333618275</v>
+        <v>230.0341122945659</v>
       </c>
       <c r="AD2" t="n">
-        <v>148238.621266666</v>
+        <v>185861.997743228</v>
       </c>
       <c r="AE2" t="n">
-        <v>202826.6214433744</v>
+        <v>254304.5849648063</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585978293316248e-06</v>
+        <v>7.248083616557869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.945833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183469.1333618275</v>
+        <v>230034.1122945659</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.740117833712</v>
+        <v>142.9920735904404</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.0972235474168</v>
+        <v>195.6480634514185</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.7223306334691</v>
+        <v>176.9756868694521</v>
       </c>
       <c r="AD2" t="n">
-        <v>117740.117833712</v>
+        <v>142992.0735904404</v>
       </c>
       <c r="AE2" t="n">
-        <v>161097.2235474168</v>
+        <v>195648.0634514185</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.711536796590608e-06</v>
+        <v>8.326771184345718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.456250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>145722.330633469</v>
+        <v>176975.6868694521</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.73515028494415</v>
+        <v>123.0723573876932</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.7255443903258</v>
+        <v>168.3930289469767</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.9629661187291</v>
+        <v>152.3218346054245</v>
       </c>
       <c r="AD3" t="n">
-        <v>97735.15028494416</v>
+        <v>123072.3573876932</v>
       </c>
       <c r="AE3" t="n">
-        <v>133725.5443903258</v>
+        <v>168393.0289469767</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.236940152698985e-06</v>
+        <v>9.092749533362621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>120962.9661187291</v>
+        <v>152321.8346054245</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.32803944997</v>
+        <v>207.0695768826958</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.628046736308</v>
+        <v>283.321730355771</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.4719664864675</v>
+        <v>256.2819020552455</v>
       </c>
       <c r="AD2" t="n">
-        <v>177328.03944997</v>
+        <v>207069.5768826958</v>
       </c>
       <c r="AE2" t="n">
-        <v>242628.046736308</v>
+        <v>283321.730355771</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.131546909360977e-06</v>
+        <v>6.619708639571726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>219471.9664864675</v>
+        <v>256281.9020552455</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.355284027443</v>
+        <v>131.8843302927692</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.8882357871535</v>
+        <v>180.4499590325032</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.8694287226012</v>
+        <v>163.2280682055998</v>
       </c>
       <c r="AD2" t="n">
-        <v>107355.284027443</v>
+        <v>131884.3302927692</v>
       </c>
       <c r="AE2" t="n">
-        <v>146888.2357871535</v>
+        <v>180449.9590325032</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01775949316224e-06</v>
+        <v>8.935429245383255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>132869.4287226012</v>
+        <v>163228.0682055998</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.1875878468225</v>
+        <v>131.7166341121487</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.6587864745952</v>
+        <v>180.2205097199449</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.6618777303993</v>
+        <v>163.0205172133979</v>
       </c>
       <c r="AD3" t="n">
-        <v>107187.5878468225</v>
+        <v>131716.6341121487</v>
       </c>
       <c r="AE3" t="n">
-        <v>146658.7864745952</v>
+        <v>180220.5097199449</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.040616468137561e-06</v>
+        <v>8.969368269182317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>132661.8777303993</v>
+        <v>163020.5172133979</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0289171912668</v>
+        <v>124.7460189431109</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8099304004944</v>
+        <v>170.6830065238349</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7031580956516</v>
+        <v>154.3932599363517</v>
       </c>
       <c r="AD2" t="n">
-        <v>108028.9171912668</v>
+        <v>124746.0189431109</v>
       </c>
       <c r="AE2" t="n">
-        <v>147809.9304004944</v>
+        <v>170683.0065238349</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.064398525438842e-06</v>
+        <v>8.917349202251704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133703.1580956516</v>
+        <v>154393.2599363517</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4542733674873</v>
+        <v>123.1713751193315</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.6554332524178</v>
+        <v>168.5285093757583</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.754283131531</v>
+        <v>152.4443849722311</v>
       </c>
       <c r="AD3" t="n">
-        <v>106454.2733674873</v>
+        <v>123171.3751193315</v>
       </c>
       <c r="AE3" t="n">
-        <v>145655.4332524178</v>
+        <v>168528.5093757583</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158093071314964e-06</v>
+        <v>9.055121642571877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.154166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>131754.283131531</v>
+        <v>152444.3849722311</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.4228426170968</v>
+        <v>177.0835768960634</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.1834135729632</v>
+        <v>242.2935622851264</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.4101193653658</v>
+        <v>219.1694047618546</v>
       </c>
       <c r="AD2" t="n">
-        <v>151422.8426170968</v>
+        <v>177083.5768960634</v>
       </c>
       <c r="AE2" t="n">
-        <v>207183.4135729632</v>
+        <v>242293.5622851264</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.950606605590828e-06</v>
+        <v>7.162401528285142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>187410.1193653658</v>
+        <v>219169.4047618546</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.32823033328017</v>
+        <v>123.9888751036957</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5370226773039</v>
+        <v>169.6470489199188</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6969980569151</v>
+        <v>153.4561726721774</v>
       </c>
       <c r="AD3" t="n">
-        <v>98328.23033328017</v>
+        <v>123988.8751036957</v>
       </c>
       <c r="AE3" t="n">
-        <v>134537.0226773039</v>
+        <v>169647.0489199188</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26479811138793e-06</v>
+        <v>9.063737667365649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.889583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>121696.9980569152</v>
+        <v>153456.1726721774</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.5461336395659</v>
+        <v>132.8335613391623</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.5176087630362</v>
+        <v>181.7487388272958</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.3432966285055</v>
+        <v>164.4028942796268</v>
       </c>
       <c r="AD2" t="n">
-        <v>108546.1336395659</v>
+        <v>132833.5613391623</v>
       </c>
       <c r="AE2" t="n">
-        <v>148517.6087630362</v>
+        <v>181748.7388272958</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.867420578671899e-06</v>
+        <v>8.811015207062823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.647916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134343.2966285055</v>
+        <v>164402.8942796268</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.8962876151761</v>
+        <v>133.1837153147726</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.996704880169</v>
+        <v>182.2278349444287</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.7766684846349</v>
+        <v>164.8362661357562</v>
       </c>
       <c r="AD3" t="n">
-        <v>108896.2876151761</v>
+        <v>133183.7153147726</v>
       </c>
       <c r="AE3" t="n">
-        <v>148996.704880169</v>
+        <v>182227.8349444287</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.868056923835249e-06</v>
+        <v>8.811970796803842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.647916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134776.6684846349</v>
+        <v>164836.2661357562</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4845037414522</v>
+        <v>145.9738283716726</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.5887016539177</v>
+        <v>199.7278318888352</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.5942711803343</v>
+        <v>180.6660879331941</v>
       </c>
       <c r="AD2" t="n">
-        <v>122484.5037414522</v>
+        <v>145973.8283716726</v>
       </c>
       <c r="AE2" t="n">
-        <v>167588.7016539177</v>
+        <v>199727.8318888352</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.433137890406003e-06</v>
+        <v>8.333057575636331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151594.2711803343</v>
+        <v>180666.0879331941</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8182524747914</v>
+        <v>162.8231222536164</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.3055013818841</v>
+        <v>222.7817791164829</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.0475728290086</v>
+        <v>201.5197987938606</v>
       </c>
       <c r="AD2" t="n">
-        <v>139818.2524747914</v>
+        <v>162823.1222536164</v>
       </c>
       <c r="AE2" t="n">
-        <v>191305.5013818841</v>
+        <v>222781.7791164829</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.934117830731247e-06</v>
+        <v>7.709461783239692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.237500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>173047.5728290086</v>
+        <v>201519.7987938606</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.1585327473228</v>
+        <v>253.8237288477387</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.5481760448664</v>
+        <v>347.292823721921</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.1049816996288</v>
+        <v>314.1476840545438</v>
       </c>
       <c r="AD2" t="n">
-        <v>210158.5327473228</v>
+        <v>253823.7288477387</v>
       </c>
       <c r="AE2" t="n">
-        <v>287548.1760448664</v>
+        <v>347292.823721921</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515148480084987e-06</v>
+        <v>5.728553582281865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>260104.9816996287</v>
+        <v>314147.6840545438</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4141663641294</v>
+        <v>132.1351610812005</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.9688011979131</v>
+        <v>180.7931567831081</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9423050836322</v>
+        <v>163.5385116445681</v>
       </c>
       <c r="AD2" t="n">
-        <v>107414.1663641294</v>
+        <v>132135.1610812005</v>
       </c>
       <c r="AE2" t="n">
-        <v>146968.8011979131</v>
+        <v>180793.156783108</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.056620504356515e-06</v>
+        <v>8.947934874903608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132942.3050836322</v>
+        <v>163538.5116445681</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.7514641747004</v>
+        <v>123.3459449616936</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.0620628259796</v>
+        <v>168.7673635355558</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1221045493004</v>
+        <v>152.6604432262516</v>
       </c>
       <c r="AD3" t="n">
-        <v>106751.4641747004</v>
+        <v>123345.9449616936</v>
       </c>
       <c r="AE3" t="n">
-        <v>146062.0628259796</v>
+        <v>168767.3635355558</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.103396903760111e-06</v>
+        <v>9.017041429498668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.252083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>132122.1045493004</v>
+        <v>152660.4432262516</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8077193298338</v>
+        <v>154.3946678519534</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2404041825209</v>
+        <v>211.2495959669682</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4202673623511</v>
+        <v>191.0882310186112</v>
       </c>
       <c r="AD2" t="n">
-        <v>128807.7193298338</v>
+        <v>154394.6678519534</v>
       </c>
       <c r="AE2" t="n">
-        <v>176240.4041825209</v>
+        <v>211249.5959669682</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337411003951391e-06</v>
+        <v>7.750822883614495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>159420.2673623511</v>
+        <v>191088.2310186112</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.13488593517248</v>
+        <v>123.6364936027204</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.2724803420602</v>
+        <v>169.16490500431</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.4577032708596</v>
+        <v>153.0200438951809</v>
       </c>
       <c r="AD3" t="n">
-        <v>98134.88593517248</v>
+        <v>123636.4936027204</v>
       </c>
       <c r="AE3" t="n">
-        <v>134272.4803420602</v>
+        <v>169164.90500431</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.247663695932878e-06</v>
+        <v>9.072663639302729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.943750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>121457.7032708596</v>
+        <v>153020.0438951809</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.9644829426612</v>
+        <v>349.8044538501784</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.8469302429593</v>
+        <v>478.6178860411631</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.5906618127705</v>
+        <v>432.9392667418158</v>
       </c>
       <c r="AD2" t="n">
-        <v>292964.4829426612</v>
+        <v>349804.4538501785</v>
       </c>
       <c r="AE2" t="n">
-        <v>400846.9302429594</v>
+        <v>478617.8860411631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.670943508197888e-06</v>
+        <v>4.452303695910964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>362590.6618127705</v>
+        <v>432939.2667418158</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.7726093221194</v>
+        <v>143.5149809035461</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8781680690504</v>
+        <v>196.3635283062517</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.237865713039</v>
+        <v>177.6228687627016</v>
       </c>
       <c r="AD2" t="n">
-        <v>119772.6093221194</v>
+        <v>143514.9809035461</v>
       </c>
       <c r="AE2" t="n">
-        <v>163878.1680690504</v>
+        <v>196363.5283062517</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.612285624500777e-06</v>
+        <v>8.541374654922039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>148237.8657130389</v>
+        <v>177622.8687627016</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.9765811563718</v>
+        <v>132.475244615465</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.7383219286482</v>
+        <v>181.2584740781152</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.6383838358553</v>
+        <v>163.9594197100169</v>
       </c>
       <c r="AD2" t="n">
-        <v>107976.5811563718</v>
+        <v>132475.244615465</v>
       </c>
       <c r="AE2" t="n">
-        <v>147738.3219286482</v>
+        <v>181258.4740781152</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944745684443846e-06</v>
+        <v>8.874974405543501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133638.3838358553</v>
+        <v>163959.4197100169</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4429672351994</v>
+        <v>131.7710384937004</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0082078203159</v>
+        <v>180.294948194936</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9779507933004</v>
+        <v>163.0878513848109</v>
       </c>
       <c r="AD3" t="n">
-        <v>107442.9672351994</v>
+        <v>131771.0384937004</v>
       </c>
       <c r="AE3" t="n">
-        <v>147008.2078203159</v>
+        <v>180294.948194936</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.985623573892827e-06</v>
+        <v>8.936001443850907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.472916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>132977.9507933004</v>
+        <v>163087.8513848109</v>
       </c>
     </row>
   </sheetData>
